--- a/src/test/resources/ExcelData/TestInput.xlsx
+++ b/src/test/resources/ExcelData/TestInput.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRANING\JAVA\Apollo247\Apollo247\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36BB42F2-6064-4D7D-BA6A-DA1EA230A2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B3F8F-E843-4506-8DB5-330E4ECBF96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B0FBDC8C-1CBD-4442-94C9-ED7A20ED6ECA}"/>
+    <workbookView xWindow="2940" yWindow="2780" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{B0FBDC8C-1CBD-4442-94C9-ED7A20ED6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Paracetmol</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>Vitamin c</t>
+  </si>
+  <si>
+    <t>HB test</t>
+  </si>
+  <si>
+    <t>CBC test</t>
   </si>
 </sst>
 </file>
@@ -418,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962A93C-7291-46EE-B831-0F4C74B9C666}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -445,4 +452,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E892DFEB-0158-4BFB-BA52-BBDEACF81CDE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>